--- a/data/league_data/spain/21/spain_defending.xlsx
+++ b/data/league_data/spain/21/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3A302-071A-714C-871C-DB062742A08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E158B9-D81F-3E47-B4F8-0F3253EE5FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="606">
   <si>
     <t>Blocks</t>
   </si>
@@ -1546,9 +1546,6 @@
     <t>Facundo Pellistri</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -1591,9 +1588,6 @@
     <t>Kenan Kodro</t>
   </si>
   <si>
-    <t>Javi Martínez</t>
-  </si>
-  <si>
     <t>Okay Yokuşlu</t>
   </si>
   <si>
@@ -1829,6 +1823,21 @@
   </si>
   <si>
     <t>Eugeni Valderrama</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez</t>
+  </si>
+  <si>
+    <t>Javi Martínez Calvo</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18408,7 +18417,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>250</v>
+        <v>602</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>35</v>
@@ -21923,7 +21932,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>290</v>
+        <v>603</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>35</v>
@@ -26570,7 +26579,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>341</v>
+        <v>601</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>35</v>
@@ -41334,7 +41343,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>35</v>
@@ -41429,7 +41438,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>28</v>
@@ -41524,7 +41533,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>35</v>
@@ -41619,7 +41628,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>76</v>
@@ -41714,7 +41723,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>117</v>
@@ -41809,10 +41818,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>59</v>
@@ -41904,7 +41913,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>35</v>
@@ -42094,7 +42103,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>35</v>
@@ -42189,7 +42198,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>359</v>
@@ -42284,7 +42293,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>68</v>
@@ -42379,7 +42388,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>68</v>
@@ -42474,7 +42483,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>35</v>
@@ -42569,7 +42578,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>73</v>
@@ -42664,7 +42673,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>489</v>
@@ -42759,7 +42768,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>35</v>
@@ -42854,7 +42863,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>359</v>
@@ -42949,7 +42958,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>35</v>
@@ -43044,7 +43053,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>35</v>
@@ -43137,7 +43146,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>35</v>
@@ -43232,10 +43241,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>29</v>
@@ -43325,7 +43334,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>35</v>
@@ -43420,7 +43429,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>35</v>
@@ -43610,7 +43619,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>35</v>
@@ -43705,7 +43714,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>35</v>
@@ -43800,7 +43809,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>35</v>
@@ -43895,7 +43904,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>35</v>
@@ -43990,7 +43999,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>35</v>
@@ -44085,7 +44094,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>35</v>
@@ -44180,7 +44189,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>35</v>
@@ -44275,7 +44284,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>54</v>
@@ -44370,7 +44379,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>463</v>
@@ -44465,7 +44474,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>35</v>
@@ -44560,7 +44569,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>35</v>
@@ -44655,7 +44664,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>68</v>
@@ -44750,7 +44759,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>35</v>
@@ -44845,7 +44854,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>35</v>
@@ -44940,7 +44949,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>68</v>
@@ -45035,7 +45044,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>35</v>
@@ -45130,7 +45139,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>100</v>
@@ -45225,7 +45234,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>35</v>
@@ -45320,7 +45329,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>71</v>
@@ -45413,7 +45422,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>35</v>
@@ -45508,7 +45517,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>35</v>
@@ -45603,7 +45612,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>68</v>
@@ -45793,7 +45802,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>35</v>
@@ -45888,7 +45897,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>35</v>
@@ -45979,7 +45988,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>35</v>
@@ -46074,7 +46083,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>35</v>
@@ -46169,7 +46178,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>35</v>
@@ -46264,7 +46273,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>35</v>
@@ -46359,7 +46368,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>35</v>
@@ -46454,7 +46463,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>35</v>
@@ -46545,7 +46554,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>35</v>
@@ -46640,7 +46649,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>71</v>
@@ -46735,7 +46744,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>35</v>
@@ -46830,7 +46839,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>35</v>
@@ -46925,7 +46934,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>35</v>
@@ -47020,7 +47029,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>35</v>
@@ -47073,7 +47082,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>35</v>
@@ -47168,10 +47177,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>121</v>
@@ -47263,7 +47272,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>35</v>
@@ -47358,7 +47367,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>35</v>
@@ -47453,7 +47462,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>35</v>
@@ -47548,7 +47557,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>189</v>
@@ -47643,7 +47652,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>68</v>
@@ -47738,10 +47747,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>69</v>
@@ -47833,7 +47842,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>76</v>
@@ -47928,7 +47937,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>363</v>
@@ -48023,7 +48032,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>35</v>
@@ -48118,13 +48127,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>48</v>
@@ -48211,7 +48220,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>35</v>
@@ -48302,7 +48311,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>100</v>
@@ -48397,7 +48406,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>35</v>
@@ -48492,7 +48501,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>100</v>
@@ -48587,7 +48596,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>68</v>
@@ -48678,7 +48687,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>35</v>
@@ -48771,7 +48780,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>35</v>
@@ -48866,7 +48875,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>35</v>
@@ -48961,7 +48970,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>68</v>
@@ -49056,7 +49065,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>54</v>
@@ -49149,7 +49158,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>35</v>
@@ -49244,7 +49253,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>35</v>
@@ -49339,7 +49348,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>35</v>
@@ -49434,10 +49443,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>44</v>
@@ -49529,7 +49538,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>348</v>
@@ -49624,7 +49633,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>35</v>
@@ -49717,7 +49726,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>35</v>
@@ -49812,7 +49821,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>35</v>
@@ -49907,7 +49916,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>35</v>
@@ -50000,7 +50009,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>35</v>

--- a/data/league_data/spain/21/spain_defending.xlsx
+++ b/data/league_data/spain/21/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E158B9-D81F-3E47-B4F8-0F3253EE5FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA35F495-D265-D545-8F4B-CDD544D8CC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,9 +958,6 @@
     <t>João Félix</t>
   </si>
   <si>
-    <t>Sergio Álvarez</t>
-  </si>
-  <si>
     <t>Martin Agirregabiria</t>
   </si>
   <si>
@@ -1838,6 +1835,9 @@
   </si>
   <si>
     <t>Javi Martínez Calvo</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18417,7 +18417,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>35</v>
@@ -21932,7 +21932,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>35</v>
@@ -23923,7 +23923,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>312</v>
+        <v>605</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>35</v>
@@ -24018,7 +24018,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>35</v>
@@ -24113,7 +24113,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>35</v>
@@ -24208,7 +24208,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>68</v>
@@ -24303,7 +24303,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>35</v>
@@ -24398,7 +24398,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>35</v>
@@ -24493,7 +24493,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>35</v>
@@ -24588,7 +24588,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>35</v>
@@ -24683,7 +24683,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>266</v>
@@ -24778,10 +24778,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>69</v>
@@ -24873,7 +24873,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>35</v>
@@ -24968,7 +24968,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>76</v>
@@ -25063,7 +25063,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>35</v>
@@ -25158,7 +25158,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>71</v>
@@ -25253,7 +25253,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>126</v>
@@ -25348,7 +25348,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>73</v>
@@ -25443,7 +25443,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>35</v>
@@ -25538,7 +25538,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>35</v>
@@ -25633,7 +25633,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>35</v>
@@ -25724,7 +25724,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>35</v>
@@ -25819,7 +25819,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>35</v>
@@ -25914,7 +25914,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>35</v>
@@ -26009,7 +26009,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>35</v>
@@ -26104,7 +26104,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>35</v>
@@ -26199,7 +26199,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>35</v>
@@ -26294,7 +26294,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>35</v>
@@ -26389,7 +26389,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>35</v>
@@ -26484,7 +26484,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>35</v>
@@ -26579,7 +26579,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>35</v>
@@ -26674,7 +26674,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>35</v>
@@ -26769,7 +26769,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>35</v>
@@ -26864,7 +26864,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>35</v>
@@ -26959,7 +26959,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>83</v>
@@ -27054,7 +27054,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>35</v>
@@ -27149,10 +27149,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>121</v>
@@ -27244,7 +27244,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>71</v>
@@ -27339,7 +27339,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>35</v>
@@ -27434,7 +27434,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>35</v>
@@ -27529,7 +27529,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>35</v>
@@ -27624,7 +27624,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>35</v>
@@ -27719,7 +27719,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>76</v>
@@ -27814,7 +27814,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>196</v>
@@ -27909,7 +27909,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>76</v>
@@ -28004,7 +28004,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>173</v>
@@ -28099,10 +28099,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>59</v>
@@ -28194,7 +28194,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>35</v>
@@ -28289,7 +28289,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>35</v>
@@ -28384,10 +28384,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>47</v>
@@ -28479,7 +28479,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>35</v>
@@ -28574,7 +28574,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>35</v>
@@ -28669,7 +28669,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>35</v>
@@ -28764,7 +28764,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>35</v>
@@ -28859,7 +28859,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>35</v>
@@ -28954,7 +28954,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>35</v>
@@ -29049,7 +29049,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>50</v>
@@ -29144,10 +29144,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>69</v>
@@ -29334,7 +29334,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>35</v>
@@ -29429,7 +29429,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>35</v>
@@ -29524,7 +29524,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>68</v>
@@ -29619,7 +29619,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>100</v>
@@ -29714,10 +29714,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>47</v>
@@ -29809,7 +29809,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>35</v>
@@ -29904,7 +29904,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>126</v>
@@ -29999,7 +29999,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>35</v>
@@ -30094,7 +30094,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>71</v>
@@ -30189,7 +30189,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>35</v>
@@ -30284,7 +30284,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>35</v>
@@ -30379,7 +30379,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>80</v>
@@ -30474,7 +30474,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>73</v>
@@ -30569,10 +30569,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>47</v>
@@ -30664,7 +30664,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>68</v>
@@ -30759,7 +30759,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>35</v>
@@ -30852,7 +30852,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>35</v>
@@ -30947,7 +30947,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>68</v>
@@ -31042,7 +31042,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>35</v>
@@ -31137,7 +31137,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>73</v>
@@ -31232,7 +31232,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>100</v>
@@ -31327,7 +31327,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>35</v>
@@ -31422,7 +31422,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>73</v>
@@ -31517,7 +31517,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>278</v>
@@ -31612,7 +31612,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>278</v>
@@ -31707,7 +31707,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>54</v>
@@ -31802,7 +31802,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>35</v>
@@ -31897,7 +31897,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>35</v>
@@ -31992,7 +31992,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>35</v>
@@ -32087,7 +32087,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>68</v>
@@ -32182,7 +32182,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>35</v>
@@ -32277,10 +32277,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>44</v>
@@ -32372,7 +32372,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>100</v>
@@ -32467,7 +32467,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>71</v>
@@ -32562,7 +32562,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>35</v>
@@ -32657,7 +32657,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>73</v>
@@ -32752,7 +32752,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>54</v>
@@ -32847,7 +32847,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>35</v>
@@ -32942,7 +32942,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>28</v>
@@ -33037,7 +33037,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>68</v>
@@ -33132,7 +33132,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>35</v>
@@ -33227,7 +33227,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>73</v>
@@ -33322,7 +33322,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>35</v>
@@ -33417,7 +33417,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>35</v>
@@ -33512,7 +33512,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>35</v>
@@ -33607,7 +33607,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>35</v>
@@ -33702,7 +33702,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>35</v>
@@ -33797,7 +33797,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>35</v>
@@ -33892,7 +33892,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>35</v>
@@ -33987,10 +33987,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>59</v>
@@ -34082,7 +34082,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>35</v>
@@ -34177,7 +34177,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>68</v>
@@ -34272,7 +34272,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>35</v>
@@ -34367,7 +34367,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>35</v>
@@ -34462,7 +34462,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>35</v>
@@ -34557,7 +34557,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>54</v>
@@ -34652,7 +34652,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>35</v>
@@ -34747,7 +34747,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>35</v>
@@ -34842,7 +34842,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>83</v>
@@ -34937,7 +34937,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>50</v>
@@ -35028,7 +35028,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>35</v>
@@ -35119,7 +35119,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>35</v>
@@ -35214,7 +35214,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>73</v>
@@ -35309,7 +35309,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>35</v>
@@ -35404,7 +35404,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>247</v>
@@ -35499,7 +35499,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>173</v>
@@ -35594,7 +35594,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>54</v>
@@ -35689,7 +35689,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>35</v>
@@ -35784,7 +35784,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>83</v>
@@ -35879,7 +35879,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>35</v>
@@ -35974,7 +35974,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>35</v>
@@ -36069,7 +36069,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>35</v>
@@ -36164,7 +36164,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>35</v>
@@ -36259,7 +36259,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>35</v>
@@ -36354,7 +36354,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>35</v>
@@ -36449,7 +36449,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>35</v>
@@ -36544,7 +36544,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>35</v>
@@ -36639,7 +36639,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>88</v>
@@ -36734,7 +36734,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>35</v>
@@ -36829,7 +36829,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>278</v>
@@ -36924,7 +36924,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>35</v>
@@ -37019,7 +37019,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>35</v>
@@ -37114,10 +37114,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>44</v>
@@ -37209,7 +37209,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>126</v>
@@ -37304,10 +37304,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>44</v>
@@ -37399,7 +37399,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>35</v>
@@ -37494,7 +37494,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>35</v>
@@ -37589,7 +37589,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>35</v>
@@ -37684,7 +37684,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>126</v>
@@ -37779,7 +37779,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>71</v>
@@ -37874,7 +37874,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>68</v>
@@ -37969,7 +37969,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>35</v>
@@ -38064,7 +38064,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>68</v>
@@ -38159,7 +38159,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>35</v>
@@ -38254,7 +38254,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>35</v>
@@ -38349,7 +38349,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>35</v>
@@ -38444,7 +38444,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>68</v>
@@ -38537,7 +38537,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>35</v>
@@ -38632,7 +38632,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>100</v>
@@ -38727,7 +38727,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>73</v>
@@ -38822,7 +38822,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>73</v>
@@ -38917,7 +38917,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>173</v>
@@ -39012,7 +39012,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>100</v>
@@ -39065,7 +39065,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>73</v>
@@ -39160,7 +39160,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>50</v>
@@ -39255,7 +39255,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>35</v>
@@ -39350,7 +39350,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>35</v>
@@ -39445,7 +39445,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>71</v>
@@ -39540,7 +39540,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>35</v>
@@ -39635,7 +39635,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>73</v>
@@ -39728,10 +39728,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>44</v>
@@ -39823,7 +39823,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>71</v>
@@ -39918,10 +39918,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>121</v>
@@ -40013,10 +40013,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>47</v>
@@ -40108,7 +40108,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>35</v>
@@ -40203,7 +40203,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>35</v>
@@ -40298,7 +40298,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>76</v>
@@ -40393,7 +40393,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>35</v>
@@ -40488,7 +40488,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>35</v>
@@ -40583,7 +40583,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>35</v>
@@ -40678,7 +40678,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>35</v>
@@ -40773,7 +40773,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>35</v>
@@ -40868,7 +40868,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>35</v>
@@ -40963,7 +40963,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>35</v>
@@ -41058,7 +41058,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>35</v>
@@ -41153,7 +41153,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>35</v>
@@ -41248,7 +41248,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>76</v>
@@ -41343,7 +41343,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>35</v>
@@ -41438,7 +41438,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>28</v>
@@ -41533,7 +41533,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>35</v>
@@ -41628,7 +41628,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>76</v>
@@ -41723,7 +41723,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>117</v>
@@ -41818,10 +41818,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>59</v>
@@ -41913,7 +41913,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>35</v>
@@ -42103,7 +42103,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>35</v>
@@ -42198,10 +42198,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>69</v>
@@ -42293,7 +42293,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>68</v>
@@ -42388,7 +42388,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>68</v>
@@ -42483,7 +42483,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>35</v>
@@ -42578,7 +42578,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>73</v>
@@ -42673,10 +42673,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>69</v>
@@ -42768,7 +42768,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>35</v>
@@ -42863,10 +42863,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>44</v>
@@ -42958,7 +42958,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>35</v>
@@ -43053,7 +43053,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>35</v>
@@ -43146,7 +43146,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>35</v>
@@ -43241,10 +43241,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>29</v>
@@ -43334,7 +43334,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>35</v>
@@ -43429,7 +43429,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>35</v>
@@ -43524,10 +43524,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>44</v>
@@ -43619,7 +43619,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>35</v>
@@ -43714,7 +43714,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>35</v>
@@ -43809,7 +43809,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>35</v>
@@ -43904,7 +43904,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>35</v>
@@ -43999,7 +43999,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>35</v>
@@ -44094,7 +44094,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>35</v>
@@ -44189,7 +44189,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>35</v>
@@ -44284,7 +44284,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>54</v>
@@ -44379,10 +44379,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>44</v>
@@ -44474,7 +44474,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>35</v>
@@ -44569,7 +44569,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>35</v>
@@ -44664,7 +44664,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>68</v>
@@ -44759,7 +44759,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>35</v>
@@ -44854,7 +44854,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>35</v>
@@ -44949,7 +44949,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>68</v>
@@ -45044,7 +45044,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>35</v>
@@ -45139,7 +45139,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>100</v>
@@ -45234,7 +45234,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>35</v>
@@ -45329,7 +45329,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>71</v>
@@ -45422,7 +45422,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>35</v>
@@ -45517,7 +45517,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>35</v>
@@ -45612,7 +45612,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>68</v>
@@ -45707,7 +45707,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>278</v>
@@ -45802,7 +45802,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>35</v>
@@ -45897,7 +45897,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>35</v>
@@ -45988,7 +45988,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>35</v>
@@ -46083,7 +46083,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>35</v>
@@ -46178,7 +46178,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>35</v>
@@ -46273,7 +46273,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>35</v>
@@ -46368,7 +46368,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>35</v>
@@ -46463,7 +46463,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>35</v>
@@ -46554,7 +46554,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>35</v>
@@ -46649,7 +46649,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>71</v>
@@ -46744,7 +46744,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>35</v>
@@ -46839,7 +46839,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>35</v>
@@ -46934,7 +46934,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>35</v>
@@ -47029,7 +47029,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>35</v>
@@ -47082,7 +47082,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>35</v>
@@ -47177,10 +47177,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>121</v>
@@ -47272,7 +47272,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>35</v>
@@ -47367,7 +47367,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>35</v>
@@ -47462,7 +47462,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>35</v>
@@ -47557,7 +47557,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>189</v>
@@ -47652,7 +47652,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>68</v>
@@ -47747,10 +47747,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>69</v>
@@ -47842,7 +47842,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>76</v>
@@ -47937,10 +47937,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>44</v>
@@ -48032,7 +48032,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>35</v>
@@ -48127,13 +48127,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>48</v>
@@ -48220,7 +48220,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>35</v>
@@ -48311,7 +48311,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>100</v>
@@ -48406,7 +48406,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>35</v>
@@ -48501,7 +48501,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>100</v>
@@ -48596,7 +48596,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>68</v>
@@ -48687,7 +48687,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>35</v>
@@ -48780,7 +48780,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>35</v>
@@ -48875,7 +48875,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>35</v>
@@ -48970,7 +48970,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>68</v>
@@ -49065,7 +49065,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>54</v>
@@ -49158,7 +49158,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>35</v>
@@ -49253,7 +49253,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>35</v>
@@ -49348,7 +49348,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>35</v>
@@ -49443,10 +49443,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>44</v>
@@ -49538,10 +49538,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>121</v>
@@ -49633,7 +49633,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>35</v>
@@ -49726,7 +49726,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>35</v>
@@ -49821,7 +49821,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>35</v>
@@ -49916,7 +49916,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>35</v>
@@ -50009,7 +50009,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>35</v>

--- a/data/league_data/spain/21/spain_defending.xlsx
+++ b/data/league_data/spain/21/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA35F495-D265-D545-8F4B-CDD544D8CC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F9A3CC-6F34-A146-883D-64B547A4B100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,9 +238,6 @@
     <t>fr FRA</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1838,6 +1835,9 @@
   </si>
   <si>
     <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4739,16 +4739,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3">
         <v>21</v>
@@ -4834,10 +4834,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>44</v>
@@ -4929,7 +4929,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>71</v>
@@ -4938,7 +4938,7 @@
         <v>47</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="3">
         <v>21</v>
@@ -5024,16 +5024,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3">
         <v>31</v>
@@ -5119,16 +5119,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="3">
         <v>29</v>
@@ -5214,7 +5214,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -5309,7 +5309,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
@@ -5404,7 +5404,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>35</v>
@@ -5499,10 +5499,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>47</v>
@@ -5594,10 +5594,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>47</v>
@@ -5689,7 +5689,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
@@ -5698,7 +5698,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="3">
         <v>31</v>
@@ -5784,7 +5784,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>71</v>
@@ -5879,10 +5879,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>44</v>
@@ -5974,7 +5974,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>35</v>
@@ -6069,7 +6069,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>68</v>
@@ -6078,7 +6078,7 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="3">
         <v>27</v>
@@ -6164,7 +6164,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
@@ -6259,16 +6259,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="3">
         <v>26</v>
@@ -6354,7 +6354,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
@@ -6363,7 +6363,7 @@
         <v>59</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F39" s="3">
         <v>32</v>
@@ -6449,7 +6449,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
@@ -6458,7 +6458,7 @@
         <v>44</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="3">
         <v>23</v>
@@ -6544,7 +6544,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>68</v>
@@ -6553,7 +6553,7 @@
         <v>44</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="3">
         <v>26</v>
@@ -6639,7 +6639,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>35</v>
@@ -6648,7 +6648,7 @@
         <v>44</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="3">
         <v>26</v>
@@ -6734,7 +6734,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>35</v>
@@ -6743,7 +6743,7 @@
         <v>47</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F43" s="3">
         <v>25</v>
@@ -6829,7 +6829,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>35</v>
@@ -6838,7 +6838,7 @@
         <v>47</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F44" s="3">
         <v>34</v>
@@ -6924,7 +6924,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>35</v>
@@ -7019,16 +7019,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F46" s="3">
         <v>27</v>
@@ -7114,10 +7114,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>29</v>
@@ -7209,7 +7209,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>35</v>
@@ -7218,7 +7218,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F48" s="3">
         <v>28</v>
@@ -7304,7 +7304,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>71</v>
@@ -7399,10 +7399,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>44</v>
@@ -7494,7 +7494,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>35</v>
@@ -7503,7 +7503,7 @@
         <v>44</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" s="3">
         <v>23</v>
@@ -7589,7 +7589,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>54</v>
@@ -7684,13 +7684,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>48</v>
@@ -7779,16 +7779,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F54" s="3">
         <v>29</v>
@@ -7874,7 +7874,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>71</v>
@@ -7969,7 +7969,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>35</v>
@@ -7978,7 +7978,7 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="3">
         <v>28</v>
@@ -8064,16 +8064,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F57" s="3">
         <v>28</v>
@@ -8159,16 +8159,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F58" s="3">
         <v>25</v>
@@ -8254,7 +8254,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>68</v>
@@ -8263,7 +8263,7 @@
         <v>59</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="3">
         <v>24</v>
@@ -8349,16 +8349,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F60" s="3">
         <v>23</v>
@@ -8444,16 +8444,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F61" s="3">
         <v>23</v>
@@ -8539,7 +8539,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>35</v>
@@ -8634,7 +8634,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>71</v>
@@ -8643,7 +8643,7 @@
         <v>47</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F63" s="3">
         <v>27</v>
@@ -8729,7 +8729,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>35</v>
@@ -8824,7 +8824,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>68</v>
@@ -8833,7 +8833,7 @@
         <v>44</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="3">
         <v>30</v>
@@ -8919,16 +8919,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" s="3">
         <v>26</v>
@@ -9014,10 +9014,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>47</v>
@@ -9109,7 +9109,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>35</v>
@@ -9118,7 +9118,7 @@
         <v>47</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" s="3">
         <v>33</v>
@@ -9204,7 +9204,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>35</v>
@@ -9299,7 +9299,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>68</v>
@@ -9308,7 +9308,7 @@
         <v>59</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F70" s="3">
         <v>26</v>
@@ -9394,16 +9394,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F71" s="3">
         <v>27</v>
@@ -9489,16 +9489,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" s="3">
         <v>27</v>
@@ -9584,7 +9584,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>35</v>
@@ -9593,7 +9593,7 @@
         <v>29</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F73" s="3">
         <v>29</v>
@@ -9677,10 +9677,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>47</v>
@@ -9772,16 +9772,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75" s="3">
         <v>28</v>
@@ -9867,7 +9867,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>71</v>
@@ -9962,7 +9962,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>35</v>
@@ -9971,7 +9971,7 @@
         <v>47</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F77" s="3">
         <v>29</v>
@@ -10057,16 +10057,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F78" s="3">
         <v>33</v>
@@ -10152,7 +10152,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>35</v>
@@ -10161,7 +10161,7 @@
         <v>47</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F79" s="3">
         <v>27</v>
@@ -10247,7 +10247,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>35</v>
@@ -10342,7 +10342,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>35</v>
@@ -10437,13 +10437,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>42</v>
@@ -10532,7 +10532,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>35</v>
@@ -10627,16 +10627,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F84" s="3">
         <v>33</v>
@@ -10722,13 +10722,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>61</v>
@@ -10817,7 +10817,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>35</v>
@@ -10912,7 +10912,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>35</v>
@@ -11007,7 +11007,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>35</v>
@@ -11016,7 +11016,7 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F88" s="3">
         <v>29</v>
@@ -11102,7 +11102,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>35</v>
@@ -11197,16 +11197,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F90" s="3">
         <v>29</v>
@@ -11292,7 +11292,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>35</v>
@@ -11387,10 +11387,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>59</v>
@@ -11482,16 +11482,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F93" s="3">
         <v>29</v>
@@ -11577,7 +11577,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>68</v>
@@ -11672,7 +11672,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>71</v>
@@ -11767,10 +11767,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>47</v>
@@ -11862,7 +11862,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>35</v>
@@ -11957,7 +11957,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>35</v>
@@ -11966,7 +11966,7 @@
         <v>69</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F98" s="3">
         <v>33</v>
@@ -12052,16 +12052,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F99" s="3">
         <v>28</v>
@@ -12147,10 +12147,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>47</v>
@@ -12242,7 +12242,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>35</v>
@@ -12251,7 +12251,7 @@
         <v>59</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F101" s="3">
         <v>24</v>
@@ -12337,7 +12337,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>35</v>
@@ -12432,7 +12432,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>35</v>
@@ -12527,7 +12527,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>35</v>
@@ -12536,7 +12536,7 @@
         <v>44</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F104" s="3">
         <v>26</v>
@@ -12622,7 +12622,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>68</v>
@@ -12717,7 +12717,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>35</v>
@@ -12726,7 +12726,7 @@
         <v>51</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F106" s="3">
         <v>30</v>
@@ -12812,16 +12812,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F107" s="3">
         <v>28</v>
@@ -12907,7 +12907,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>35</v>
@@ -13002,7 +13002,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>35</v>
@@ -13097,7 +13097,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>35</v>
@@ -13192,16 +13192,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F111" s="3">
         <v>25</v>
@@ -13287,7 +13287,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>35</v>
@@ -13382,10 +13382,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>59</v>
@@ -13477,16 +13477,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F114" s="3">
         <v>24</v>
@@ -13572,7 +13572,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>68</v>
@@ -13581,7 +13581,7 @@
         <v>47</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F115" s="3">
         <v>28</v>
@@ -13667,10 +13667,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>44</v>
@@ -13762,10 +13762,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>51</v>
@@ -13857,16 +13857,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F118" s="3">
         <v>23</v>
@@ -13952,16 +13952,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F119" s="3">
         <v>22</v>
@@ -14047,16 +14047,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F120" s="3">
         <v>26</v>
@@ -14142,16 +14142,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F121" s="3">
         <v>23</v>
@@ -14237,13 +14237,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>40</v>
@@ -14332,13 +14332,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>55</v>
@@ -14427,7 +14427,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>35</v>
@@ -14436,7 +14436,7 @@
         <v>47</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F124" s="3">
         <v>30</v>
@@ -14522,7 +14522,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>35</v>
@@ -14531,7 +14531,7 @@
         <v>47</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F125" s="3">
         <v>30</v>
@@ -14617,7 +14617,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>35</v>
@@ -14626,7 +14626,7 @@
         <v>29</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F126" s="3">
         <v>31</v>
@@ -14712,7 +14712,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>35</v>
@@ -14721,7 +14721,7 @@
         <v>47</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F127" s="3">
         <v>33</v>
@@ -14807,16 +14807,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F128" s="3">
         <v>32</v>
@@ -14902,7 +14902,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>35</v>
@@ -14911,7 +14911,7 @@
         <v>59</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F129" s="3">
         <v>26</v>
@@ -14997,7 +14997,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>71</v>
@@ -15092,7 +15092,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>35</v>
@@ -15101,7 +15101,7 @@
         <v>59</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F131" s="3">
         <v>29</v>
@@ -15187,7 +15187,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>35</v>
@@ -15196,7 +15196,7 @@
         <v>59</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F132" s="3">
         <v>34</v>
@@ -15282,16 +15282,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F133" s="3">
         <v>23</v>
@@ -15377,7 +15377,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>35</v>
@@ -15472,13 +15472,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>55</v>
@@ -15567,7 +15567,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>54</v>
@@ -15576,7 +15576,7 @@
         <v>44</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F136" s="3">
         <v>22</v>
@@ -15662,7 +15662,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>35</v>
@@ -15757,13 +15757,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>33</v>
@@ -15852,7 +15852,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>35</v>
@@ -15861,7 +15861,7 @@
         <v>44</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F139" s="3">
         <v>29</v>
@@ -15947,7 +15947,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>35</v>
@@ -15956,7 +15956,7 @@
         <v>69</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F140" s="3">
         <v>28</v>
@@ -16042,7 +16042,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>35</v>
@@ -16051,7 +16051,7 @@
         <v>47</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F141" s="3">
         <v>31</v>
@@ -16137,7 +16137,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>35</v>
@@ -16232,16 +16232,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F143" s="3">
         <v>34</v>
@@ -16327,7 +16327,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>35</v>
@@ -16422,16 +16422,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F145" s="3">
         <v>21</v>
@@ -16517,16 +16517,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F146" s="3">
         <v>24</v>
@@ -16612,10 +16612,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>44</v>
@@ -16707,7 +16707,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>35</v>
@@ -16802,7 +16802,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>35</v>
@@ -16897,13 +16897,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>38</v>
@@ -16992,7 +16992,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>35</v>
@@ -17087,7 +17087,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>35</v>
@@ -17182,7 +17182,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>71</v>
@@ -17191,7 +17191,7 @@
         <v>47</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F153" s="3">
         <v>23</v>
@@ -17277,7 +17277,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>35</v>
@@ -17372,7 +17372,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>35</v>
@@ -17467,7 +17467,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>35</v>
@@ -17476,7 +17476,7 @@
         <v>47</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F156" s="3">
         <v>24</v>
@@ -17562,16 +17562,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F157" s="3">
         <v>31</v>
@@ -17657,10 +17657,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>47</v>
@@ -17752,7 +17752,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>35</v>
@@ -17847,7 +17847,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>35</v>
@@ -17942,7 +17942,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>35</v>
@@ -18037,7 +18037,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>35</v>
@@ -18132,10 +18132,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>47</v>
@@ -18227,16 +18227,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F164" s="3">
         <v>27</v>
@@ -18322,16 +18322,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F165" s="3">
         <v>23</v>
@@ -18417,7 +18417,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>35</v>
@@ -18512,7 +18512,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>35</v>
@@ -18521,7 +18521,7 @@
         <v>47</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F167" s="3">
         <v>20</v>
@@ -18607,7 +18607,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>35</v>
@@ -18702,7 +18702,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>35</v>
@@ -18711,7 +18711,7 @@
         <v>69</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F169" s="3">
         <v>27</v>
@@ -18797,10 +18797,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>59</v>
@@ -18892,7 +18892,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>35</v>
@@ -18987,7 +18987,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>35</v>
@@ -18996,7 +18996,7 @@
         <v>47</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F172" s="3">
         <v>24</v>
@@ -19082,7 +19082,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>35</v>
@@ -19177,7 +19177,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>35</v>
@@ -19272,7 +19272,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>35</v>
@@ -19367,7 +19367,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>35</v>
@@ -19376,7 +19376,7 @@
         <v>44</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F176" s="3">
         <v>27</v>
@@ -19462,13 +19462,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>40</v>
@@ -19557,16 +19557,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F178" s="3">
         <v>29</v>
@@ -19652,7 +19652,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>35</v>
@@ -19661,7 +19661,7 @@
         <v>51</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F179" s="3">
         <v>30</v>
@@ -19747,7 +19747,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>35</v>
@@ -19842,10 +19842,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>47</v>
@@ -19937,7 +19937,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>35</v>
@@ -20032,13 +20032,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>48</v>
@@ -20127,7 +20127,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>35</v>
@@ -20222,7 +20222,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>35</v>
@@ -20317,7 +20317,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>35</v>
@@ -20412,7 +20412,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>35</v>
@@ -20507,16 +20507,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F188" s="3">
         <v>26</v>
@@ -20602,13 +20602,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>30</v>
@@ -20697,7 +20697,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>68</v>
@@ -20706,7 +20706,7 @@
         <v>47</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -20792,13 +20792,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="D191" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>55</v>
@@ -20887,7 +20887,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>35</v>
@@ -20896,7 +20896,7 @@
         <v>47</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F192" s="3">
         <v>31</v>
@@ -20982,16 +20982,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F193" s="3">
         <v>37</v>
@@ -21077,7 +21077,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>35</v>
@@ -21086,7 +21086,7 @@
         <v>47</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F194" s="3">
         <v>24</v>
@@ -21172,7 +21172,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>35</v>
@@ -21181,7 +21181,7 @@
         <v>59</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F195" s="3">
         <v>29</v>
@@ -21267,7 +21267,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>35</v>
@@ -21276,7 +21276,7 @@
         <v>47</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F196" s="3">
         <v>26</v>
@@ -21362,7 +21362,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>35</v>
@@ -21371,7 +21371,7 @@
         <v>47</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F197" s="3">
         <v>27</v>
@@ -21457,7 +21457,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>35</v>
@@ -21466,7 +21466,7 @@
         <v>29</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F198" s="3">
         <v>23</v>
@@ -21552,13 +21552,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>52</v>
@@ -21647,10 +21647,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>47</v>
@@ -21742,7 +21742,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>35</v>
@@ -21751,7 +21751,7 @@
         <v>44</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F201" s="3">
         <v>31</v>
@@ -21837,7 +21837,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>35</v>
@@ -21932,7 +21932,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>35</v>
@@ -22027,7 +22027,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>35</v>
@@ -22036,7 +22036,7 @@
         <v>47</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F204" s="3">
         <v>31</v>
@@ -22122,7 +22122,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>35</v>
@@ -22217,7 +22217,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>35</v>
@@ -22312,7 +22312,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>35</v>
@@ -22407,7 +22407,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>35</v>
@@ -22416,7 +22416,7 @@
         <v>47</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F208" s="3">
         <v>29</v>
@@ -22502,16 +22502,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="D209" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F209" s="3">
         <v>25</v>
@@ -22597,7 +22597,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>35</v>
@@ -22692,7 +22692,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>35</v>
@@ -22701,7 +22701,7 @@
         <v>59</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F211" s="3">
         <v>22</v>
@@ -22787,16 +22787,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F212" s="3">
         <v>22</v>
@@ -22882,7 +22882,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>35</v>
@@ -22891,7 +22891,7 @@
         <v>47</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F213" s="3">
         <v>20</v>
@@ -22977,7 +22977,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>35</v>
@@ -22986,7 +22986,7 @@
         <v>29</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F214" s="3">
         <v>25</v>
@@ -23070,10 +23070,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>59</v>
@@ -23165,7 +23165,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>35</v>
@@ -23174,7 +23174,7 @@
         <v>47</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F216" s="3">
         <v>31</v>
@@ -23260,7 +23260,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>35</v>
@@ -23269,7 +23269,7 @@
         <v>29</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F217" s="3">
         <v>30</v>
@@ -23353,7 +23353,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>35</v>
@@ -23362,7 +23362,7 @@
         <v>69</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F218" s="3">
         <v>38</v>
@@ -23448,16 +23448,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F219" s="3">
         <v>26</v>
@@ -23543,7 +23543,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>35</v>
@@ -23552,7 +23552,7 @@
         <v>69</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F220" s="3">
         <v>24</v>
@@ -23638,7 +23638,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>35</v>
@@ -23733,7 +23733,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>35</v>
@@ -23828,10 +23828,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>69</v>
@@ -23923,7 +23923,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>35</v>
@@ -24018,13 +24018,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>38</v>
@@ -24113,7 +24113,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>35</v>
@@ -24208,7 +24208,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>68</v>
@@ -24303,7 +24303,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>35</v>
@@ -24312,7 +24312,7 @@
         <v>44</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F228" s="3">
         <v>29</v>
@@ -24398,7 +24398,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>35</v>
@@ -24493,7 +24493,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>35</v>
@@ -24502,7 +24502,7 @@
         <v>47</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F230" s="3">
         <v>23</v>
@@ -24588,7 +24588,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>35</v>
@@ -24683,16 +24683,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F232" s="3">
         <v>17</v>
@@ -24778,16 +24778,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F233" s="3">
         <v>27</v>
@@ -24873,13 +24873,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>40</v>
@@ -24968,10 +24968,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>47</v>
@@ -25063,7 +25063,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>35</v>
@@ -25158,7 +25158,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>71</v>
@@ -25167,7 +25167,7 @@
         <v>44</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F237" s="3">
         <v>31</v>
@@ -25253,10 +25253,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>69</v>
@@ -25348,16 +25348,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F239" s="3">
         <v>24</v>
@@ -25443,7 +25443,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>35</v>
@@ -25452,7 +25452,7 @@
         <v>44</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F240" s="3">
         <v>23</v>
@@ -25538,7 +25538,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>35</v>
@@ -25547,7 +25547,7 @@
         <v>44</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F241" s="3">
         <v>32</v>
@@ -25633,7 +25633,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>35</v>
@@ -25724,7 +25724,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>35</v>
@@ -25733,7 +25733,7 @@
         <v>59</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F243" s="3">
         <v>35</v>
@@ -25819,13 +25819,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>48</v>
@@ -25914,7 +25914,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>35</v>
@@ -26009,16 +26009,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F246" s="3">
         <v>25</v>
@@ -26104,7 +26104,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>35</v>
@@ -26113,7 +26113,7 @@
         <v>59</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F247" s="3">
         <v>27</v>
@@ -26199,7 +26199,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>35</v>
@@ -26294,7 +26294,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>35</v>
@@ -26303,7 +26303,7 @@
         <v>44</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F249" s="3">
         <v>29</v>
@@ -26389,16 +26389,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F250" s="3">
         <v>25</v>
@@ -26484,7 +26484,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>35</v>
@@ -26493,7 +26493,7 @@
         <v>44</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F251" s="3">
         <v>21</v>
@@ -26579,7 +26579,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>35</v>
@@ -26674,7 +26674,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>35</v>
@@ -26769,7 +26769,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>35</v>
@@ -26864,7 +26864,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>35</v>
@@ -26959,16 +26959,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F256" s="3">
         <v>28</v>
@@ -27054,13 +27054,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>45</v>
@@ -27149,13 +27149,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="D258" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>42</v>
@@ -27244,13 +27244,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>33</v>
@@ -27339,7 +27339,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>35</v>
@@ -27348,7 +27348,7 @@
         <v>44</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F260" s="3">
         <v>32</v>
@@ -27434,13 +27434,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>40</v>
@@ -27529,7 +27529,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>35</v>
@@ -27624,7 +27624,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>35</v>
@@ -27633,7 +27633,7 @@
         <v>47</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F263" s="3">
         <v>23</v>
@@ -27719,10 +27719,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>44</v>
@@ -27814,16 +27814,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F265" s="3">
         <v>22</v>
@@ -27909,10 +27909,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>47</v>
@@ -28004,16 +28004,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F267" s="3">
         <v>33</v>
@@ -28099,10 +28099,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>59</v>
@@ -28194,13 +28194,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>36</v>
@@ -28289,7 +28289,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>35</v>
@@ -28298,7 +28298,7 @@
         <v>47</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F270" s="3">
         <v>25</v>
@@ -28384,16 +28384,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F271" s="3">
         <v>24</v>
@@ -28479,7 +28479,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>35</v>
@@ -28488,7 +28488,7 @@
         <v>69</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F272" s="3">
         <v>39</v>
@@ -28574,7 +28574,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>35</v>
@@ -28669,7 +28669,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>35</v>
@@ -28678,7 +28678,7 @@
         <v>69</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F274" s="3">
         <v>28</v>
@@ -28764,7 +28764,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>35</v>
@@ -28773,7 +28773,7 @@
         <v>47</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F275" s="3">
         <v>25</v>
@@ -28859,7 +28859,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>35</v>
@@ -28868,7 +28868,7 @@
         <v>51</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F276" s="3">
         <v>26</v>
@@ -28954,7 +28954,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>35</v>
@@ -29049,7 +29049,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>50</v>
@@ -29058,7 +29058,7 @@
         <v>59</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F278" s="3">
         <v>29</v>
@@ -29144,16 +29144,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F279" s="3">
         <v>19</v>
@@ -29239,16 +29239,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F280" s="3">
         <v>26</v>
@@ -29334,7 +29334,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>35</v>
@@ -29343,7 +29343,7 @@
         <v>44</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F281" s="3">
         <v>25</v>
@@ -29429,7 +29429,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>35</v>
@@ -29524,7 +29524,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>68</v>
@@ -29619,16 +29619,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F284" s="3">
         <v>28</v>
@@ -29714,16 +29714,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F285" s="3">
         <v>24</v>
@@ -29809,16 +29809,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F286" s="3">
         <v>27</v>
@@ -29904,16 +29904,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F287" s="3">
         <v>27</v>
@@ -29999,7 +29999,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>35</v>
@@ -30094,7 +30094,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>71</v>
@@ -30189,7 +30189,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>35</v>
@@ -30284,7 +30284,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>35</v>
@@ -30293,7 +30293,7 @@
         <v>47</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F291" s="3">
         <v>30</v>
@@ -30379,10 +30379,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>59</v>
@@ -30474,16 +30474,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F293" s="3">
         <v>23</v>
@@ -30569,10 +30569,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>47</v>
@@ -30664,13 +30664,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>42</v>
@@ -30759,7 +30759,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>35</v>
@@ -30768,7 +30768,7 @@
         <v>29</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F296" s="3">
         <v>34</v>
@@ -30852,7 +30852,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>35</v>
@@ -30861,7 +30861,7 @@
         <v>44</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F297" s="3">
         <v>23</v>
@@ -30947,16 +30947,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F298" s="3">
         <v>27</v>
@@ -31042,7 +31042,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>35</v>
@@ -31137,10 +31137,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>47</v>
@@ -31232,10 +31232,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>47</v>
@@ -31327,7 +31327,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>35</v>
@@ -31422,10 +31422,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>47</v>
@@ -31517,10 +31517,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>69</v>
@@ -31612,10 +31612,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>69</v>
@@ -31707,7 +31707,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>54</v>
@@ -31716,7 +31716,7 @@
         <v>44</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F306" s="3">
         <v>27</v>
@@ -31802,13 +31802,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>61</v>
@@ -31897,13 +31897,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>42</v>
@@ -31992,7 +31992,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>35</v>
@@ -32001,7 +32001,7 @@
         <v>69</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F309" s="3">
         <v>28</v>
@@ -32087,7 +32087,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>68</v>
@@ -32182,16 +32182,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F311" s="3">
         <v>26</v>
@@ -32277,16 +32277,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F312" s="3">
         <v>29</v>
@@ -32372,10 +32372,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>51</v>
@@ -32467,7 +32467,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>71</v>
@@ -32476,7 +32476,7 @@
         <v>59</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F314" s="3">
         <v>33</v>
@@ -32562,7 +32562,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>35</v>
@@ -32657,10 +32657,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>47</v>
@@ -32752,7 +32752,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>54</v>
@@ -32761,7 +32761,7 @@
         <v>51</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F317" s="3">
         <v>28</v>
@@ -32847,7 +32847,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>35</v>
@@ -32942,7 +32942,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>28</v>
@@ -33037,7 +33037,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>68</v>
@@ -33046,7 +33046,7 @@
         <v>59</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F320" s="3">
         <v>29</v>
@@ -33132,7 +33132,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>35</v>
@@ -33141,7 +33141,7 @@
         <v>69</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F321" s="3">
         <v>26</v>
@@ -33227,10 +33227,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>59</v>
@@ -33322,7 +33322,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>35</v>
@@ -33417,16 +33417,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F324" s="3">
         <v>25</v>
@@ -33512,7 +33512,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>35</v>
@@ -33607,7 +33607,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>35</v>
@@ -33616,7 +33616,7 @@
         <v>69</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F326" s="3">
         <v>23</v>
@@ -33702,7 +33702,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>35</v>
@@ -33711,7 +33711,7 @@
         <v>44</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F327" s="3">
         <v>32</v>
@@ -33797,13 +33797,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>52</v>
@@ -33892,13 +33892,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>55</v>
@@ -33987,16 +33987,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F330" s="3">
         <v>24</v>
@@ -34082,7 +34082,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>35</v>
@@ -34177,16 +34177,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F332" s="3">
         <v>32</v>
@@ -34272,7 +34272,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>35</v>
@@ -34367,7 +34367,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>35</v>
@@ -34376,7 +34376,7 @@
         <v>47</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F334" s="3">
         <v>23</v>
@@ -34462,7 +34462,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>35</v>
@@ -34471,7 +34471,7 @@
         <v>47</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F335" s="3">
         <v>31</v>
@@ -34557,7 +34557,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>54</v>
@@ -34652,13 +34652,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>30</v>
@@ -34747,7 +34747,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>35</v>
@@ -34842,10 +34842,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>47</v>
@@ -34937,7 +34937,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>50</v>
@@ -34946,7 +34946,7 @@
         <v>29</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F340" s="3">
         <v>31</v>
@@ -35028,7 +35028,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>35</v>
@@ -35119,7 +35119,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>35</v>
@@ -35214,10 +35214,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>59</v>
@@ -35309,13 +35309,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>48</v>
@@ -35404,16 +35404,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F345" s="3">
         <v>27</v>
@@ -35499,16 +35499,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F346" s="3">
         <v>20</v>
@@ -35594,7 +35594,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>54</v>
@@ -35603,7 +35603,7 @@
         <v>69</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F347" s="3">
         <v>27</v>
@@ -35689,7 +35689,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>35</v>
@@ -35784,16 +35784,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F349" s="3">
         <v>24</v>
@@ -35879,7 +35879,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>35</v>
@@ -35974,7 +35974,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>35</v>
@@ -36069,7 +36069,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>35</v>
@@ -36078,7 +36078,7 @@
         <v>47</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F352" s="3">
         <v>33</v>
@@ -36164,16 +36164,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F353" s="3">
         <v>25</v>
@@ -36259,7 +36259,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>35</v>
@@ -36268,7 +36268,7 @@
         <v>47</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F354" s="3">
         <v>32</v>
@@ -36354,7 +36354,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>35</v>
@@ -36449,7 +36449,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>35</v>
@@ -36544,7 +36544,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>35</v>
@@ -36639,16 +36639,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F358" s="3">
         <v>28</v>
@@ -36734,7 +36734,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>35</v>
@@ -36743,7 +36743,7 @@
         <v>44</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F359" s="3">
         <v>30</v>
@@ -36829,13 +36829,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>45</v>
@@ -36924,7 +36924,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>35</v>
@@ -37019,13 +37019,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>61</v>
@@ -37114,16 +37114,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F363" s="3">
         <v>26</v>
@@ -37209,10 +37209,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>59</v>
@@ -37304,10 +37304,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>44</v>
@@ -37399,16 +37399,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F366" s="3">
         <v>26</v>
@@ -37494,7 +37494,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>35</v>
@@ -37503,7 +37503,7 @@
         <v>44</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F367" s="3">
         <v>27</v>
@@ -37589,7 +37589,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>35</v>
@@ -37598,7 +37598,7 @@
         <v>59</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F368" s="3">
         <v>31</v>
@@ -37684,16 +37684,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F369" s="3">
         <v>27</v>
@@ -37779,7 +37779,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>71</v>
@@ -37874,7 +37874,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>68</v>
@@ -37883,7 +37883,7 @@
         <v>47</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F371" s="3">
         <v>20</v>
@@ -37969,7 +37969,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>35</v>
@@ -38064,7 +38064,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>68</v>
@@ -38159,7 +38159,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>35</v>
@@ -38168,7 +38168,7 @@
         <v>47</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F374" s="3">
         <v>22</v>
@@ -38254,7 +38254,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>35</v>
@@ -38263,7 +38263,7 @@
         <v>47</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F375" s="3">
         <v>30</v>
@@ -38349,7 +38349,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>35</v>
@@ -38358,7 +38358,7 @@
         <v>29</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F376" s="3">
         <v>23</v>
@@ -38444,7 +38444,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>68</v>
@@ -38453,7 +38453,7 @@
         <v>29</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F377" s="3">
         <v>28</v>
@@ -38537,7 +38537,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>35</v>
@@ -38546,7 +38546,7 @@
         <v>47</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F378" s="3">
         <v>28</v>
@@ -38632,10 +38632,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>69</v>
@@ -38727,10 +38727,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>59</v>
@@ -38822,16 +38822,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F381" s="3">
         <v>30</v>
@@ -38917,10 +38917,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>44</v>
@@ -39012,16 +39012,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F383" s="3">
         <v>21</v>
@@ -39065,13 +39065,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>52</v>
@@ -39160,7 +39160,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>50</v>
@@ -39169,7 +39169,7 @@
         <v>47</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F385" s="3">
         <v>25</v>
@@ -39255,7 +39255,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>35</v>
@@ -39264,7 +39264,7 @@
         <v>47</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F386" s="3">
         <v>20</v>
@@ -39350,7 +39350,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>35</v>
@@ -39445,7 +39445,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>71</v>
@@ -39540,7 +39540,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>35</v>
@@ -39635,10 +39635,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>29</v>
@@ -39728,10 +39728,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>44</v>
@@ -39823,13 +39823,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>36</v>
@@ -39918,13 +39918,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>491</v>
-      </c>
       <c r="D393" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>33</v>
@@ -40013,10 +40013,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>47</v>
@@ -40108,13 +40108,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>45</v>
@@ -40203,7 +40203,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>35</v>
@@ -40212,7 +40212,7 @@
         <v>69</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F396" s="3">
         <v>27</v>
@@ -40298,10 +40298,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>47</v>
@@ -40393,7 +40393,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>35</v>
@@ -40488,7 +40488,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>35</v>
@@ -40497,7 +40497,7 @@
         <v>47</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F399" s="3">
         <v>30</v>
@@ -40583,7 +40583,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>35</v>
@@ -40592,7 +40592,7 @@
         <v>44</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F400" s="3">
         <v>21</v>
@@ -40678,7 +40678,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>35</v>
@@ -40687,7 +40687,7 @@
         <v>47</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F401" s="3">
         <v>30</v>
@@ -40773,13 +40773,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>45</v>
@@ -40868,7 +40868,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>35</v>
@@ -40877,7 +40877,7 @@
         <v>47</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F403" s="3">
         <v>27</v>
@@ -40963,7 +40963,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>35</v>
@@ -41058,16 +41058,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F405" s="3">
         <v>20</v>
@@ -41153,7 +41153,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>35</v>
@@ -41248,13 +41248,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>38</v>
@@ -41343,7 +41343,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>35</v>
@@ -41352,7 +41352,7 @@
         <v>69</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F408" s="3">
         <v>20</v>
@@ -41438,7 +41438,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>28</v>
@@ -41533,7 +41533,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>35</v>
@@ -41542,7 +41542,7 @@
         <v>69</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F410" s="3">
         <v>26</v>
@@ -41628,13 +41628,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>33</v>
@@ -41723,10 +41723,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>47</v>
@@ -41818,10 +41818,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>59</v>
@@ -41913,16 +41913,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F414" s="3">
         <v>22</v>
@@ -42008,16 +42008,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F415" s="3">
         <v>31</v>
@@ -42103,13 +42103,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>36</v>
@@ -42198,16 +42198,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F417" s="3">
         <v>23</v>
@@ -42293,16 +42293,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F418" s="3">
         <v>30</v>
@@ -42388,7 +42388,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>68</v>
@@ -42397,7 +42397,7 @@
         <v>44</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F419" s="3">
         <v>28</v>
@@ -42483,7 +42483,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>35</v>
@@ -42578,10 +42578,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>47</v>
@@ -42673,16 +42673,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F422" s="3">
         <v>26</v>
@@ -42768,13 +42768,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>48</v>
@@ -42863,16 +42863,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F424" s="3">
         <v>26</v>
@@ -42958,7 +42958,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>35</v>
@@ -42967,7 +42967,7 @@
         <v>47</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F425" s="3">
         <v>29</v>
@@ -43053,7 +43053,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>35</v>
@@ -43062,7 +43062,7 @@
         <v>29</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F426" s="3">
         <v>24</v>
@@ -43146,13 +43146,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>38</v>
@@ -43241,16 +43241,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F428" s="3">
         <v>31</v>
@@ -43334,7 +43334,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>35</v>
@@ -43429,7 +43429,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>35</v>
@@ -43438,7 +43438,7 @@
         <v>51</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F430" s="3">
         <v>26</v>
@@ -43524,16 +43524,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F431" s="3">
         <v>27</v>
@@ -43619,7 +43619,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>35</v>
@@ -43714,7 +43714,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>35</v>
@@ -43809,7 +43809,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>35</v>
@@ -43818,7 +43818,7 @@
         <v>44</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F434" s="3">
         <v>31</v>
@@ -43904,13 +43904,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>45</v>
@@ -43999,7 +43999,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>35</v>
@@ -44008,7 +44008,7 @@
         <v>69</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F436" s="3">
         <v>29</v>
@@ -44094,7 +44094,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>35</v>
@@ -44103,7 +44103,7 @@
         <v>69</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F437" s="3">
         <v>21</v>
@@ -44189,7 +44189,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>35</v>
@@ -44284,7 +44284,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>54</v>
@@ -44293,7 +44293,7 @@
         <v>59</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F439" s="3">
         <v>22</v>
@@ -44379,16 +44379,16 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F440" s="3">
         <v>22</v>
@@ -44474,7 +44474,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>35</v>
@@ -44483,7 +44483,7 @@
         <v>69</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F441" s="3">
         <v>24</v>
@@ -44569,7 +44569,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>35</v>
@@ -44664,7 +44664,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>68</v>
@@ -44673,7 +44673,7 @@
         <v>44</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F443" s="3">
         <v>34</v>
@@ -44759,7 +44759,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>35</v>
@@ -44768,7 +44768,7 @@
         <v>47</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F444" s="3">
         <v>19</v>
@@ -44854,7 +44854,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>35</v>
@@ -44863,7 +44863,7 @@
         <v>29</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F445" s="3">
         <v>26</v>
@@ -44949,16 +44949,16 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F446" s="3">
         <v>31</v>
@@ -45044,13 +45044,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>42</v>
@@ -45139,16 +45139,16 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F448" s="3">
         <v>20</v>
@@ -45234,7 +45234,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>35</v>
@@ -45329,7 +45329,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>71</v>
@@ -45338,7 +45338,7 @@
         <v>47</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F450" s="3">
         <v>29</v>
@@ -45422,7 +45422,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>35</v>
@@ -45517,7 +45517,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>35</v>
@@ -45612,7 +45612,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>68</v>
@@ -45621,7 +45621,7 @@
         <v>59</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F453" s="3">
         <v>29</v>
@@ -45707,13 +45707,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>42</v>
@@ -45802,13 +45802,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>33</v>
@@ -45897,7 +45897,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>35</v>
@@ -45988,13 +45988,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>61</v>
@@ -46083,7 +46083,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>35</v>
@@ -46178,16 +46178,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F459" s="3">
         <v>40</v>
@@ -46273,7 +46273,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>35</v>
@@ -46368,16 +46368,16 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F461" s="3">
         <v>23</v>
@@ -46463,7 +46463,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>35</v>
@@ -46554,7 +46554,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>35</v>
@@ -46563,7 +46563,7 @@
         <v>47</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F463" s="3">
         <v>19</v>
@@ -46649,7 +46649,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>71</v>
@@ -46658,7 +46658,7 @@
         <v>44</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F464" s="3">
         <v>25</v>
@@ -46744,13 +46744,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>38</v>
@@ -46839,7 +46839,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>35</v>
@@ -46848,7 +46848,7 @@
         <v>47</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F466" s="3">
         <v>20</v>
@@ -46934,7 +46934,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>35</v>
@@ -46943,7 +46943,7 @@
         <v>47</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F467" s="3">
         <v>29</v>
@@ -47029,7 +47029,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>35</v>
@@ -47038,7 +47038,7 @@
         <v>59</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F468" s="3">
         <v>20</v>
@@ -47082,7 +47082,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>35</v>
@@ -47091,7 +47091,7 @@
         <v>44</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F469" s="3">
         <v>21</v>
@@ -47177,13 +47177,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C470" s="3" t="s">
-        <v>567</v>
-      </c>
       <c r="D470" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>30</v>
@@ -47272,7 +47272,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>35</v>
@@ -47367,7 +47367,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>35</v>
@@ -47462,7 +47462,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>35</v>
@@ -47557,10 +47557,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>69</v>
@@ -47652,13 +47652,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E475" s="3" t="s">
         <v>48</v>
@@ -47747,10 +47747,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>69</v>
@@ -47842,16 +47842,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F477" s="3">
         <v>24</v>
@@ -47937,10 +47937,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>44</v>
@@ -48032,7 +48032,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>35</v>
@@ -48127,13 +48127,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>48</v>
@@ -48220,7 +48220,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>35</v>
@@ -48229,7 +48229,7 @@
         <v>29</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F481" s="3">
         <v>41</v>
@@ -48311,10 +48311,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>47</v>
@@ -48406,16 +48406,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F483" s="3">
         <v>31</v>
@@ -48501,16 +48501,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F484" s="3">
         <v>23</v>
@@ -48596,7 +48596,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>68</v>
@@ -48687,7 +48687,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>35</v>
@@ -48696,7 +48696,7 @@
         <v>51</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F486" s="3">
         <v>28</v>
@@ -48780,7 +48780,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>35</v>
@@ -48875,7 +48875,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>35</v>
@@ -48970,7 +48970,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>68</v>
@@ -48979,7 +48979,7 @@
         <v>69</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F489" s="3">
         <v>31</v>
@@ -49065,7 +49065,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>54</v>
@@ -49158,7 +49158,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>35</v>
@@ -49167,7 +49167,7 @@
         <v>47</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F491" s="3">
         <v>20</v>
@@ -49253,7 +49253,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>35</v>
@@ -49348,7 +49348,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>35</v>
@@ -49357,7 +49357,7 @@
         <v>59</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F493" s="3">
         <v>24</v>
@@ -49443,16 +49443,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F494" s="3">
         <v>20</v>
@@ -49538,13 +49538,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E495" s="3" t="s">
         <v>61</v>
@@ -49633,7 +49633,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>35</v>
@@ -49642,7 +49642,7 @@
         <v>47</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F496" s="3">
         <v>22</v>
@@ -49726,13 +49726,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E497" s="3" t="s">
         <v>30</v>
@@ -49821,7 +49821,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>35</v>
@@ -49916,13 +49916,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>30</v>
@@ -50009,7 +50009,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>35</v>
